--- a/config_6.22/shoping_config.xlsx
+++ b/config_6.22/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5371" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6730,10 +6730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6773,38 +6773,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6818,6 +6789,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6825,17 +6811,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6849,22 +6827,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6904,7 +6881,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,7 +7027,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7039,43 +7123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,13 +7141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7105,79 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7217,17 +7217,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7247,22 +7243,59 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7281,39 +7314,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7322,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN670"/>
+  <dimension ref="A1:AN682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H644" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H659" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G675" sqref="G675"/>
+      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -56224,7 +56224,7 @@
         <v>10578</v>
       </c>
       <c r="F662" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G662" s="34" t="s">
         <v>1586</v>
@@ -56292,7 +56292,7 @@
         <v>10579</v>
       </c>
       <c r="F663" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G663" s="34" t="s">
         <v>1586</v>
@@ -56360,7 +56360,7 @@
         <v>10580</v>
       </c>
       <c r="F664" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G664" s="34" t="s">
         <v>1586</v>
@@ -56428,7 +56428,7 @@
         <v>10581</v>
       </c>
       <c r="F665" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G665" s="34" t="s">
         <v>1586</v>
@@ -56496,7 +56496,7 @@
         <v>10582</v>
       </c>
       <c r="F666" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G666" s="34" t="s">
         <v>1586</v>
@@ -56564,7 +56564,7 @@
         <v>10583</v>
       </c>
       <c r="F667" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G667" s="34" t="s">
         <v>1586</v>
@@ -56632,7 +56632,7 @@
         <v>10584</v>
       </c>
       <c r="F668" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G668" s="34" t="s">
         <v>1586</v>
@@ -56700,7 +56700,7 @@
         <v>10585</v>
       </c>
       <c r="F669" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G669" s="34" t="s">
         <v>1586</v>
@@ -56768,7 +56768,7 @@
         <v>10586</v>
       </c>
       <c r="F670" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G670" s="34" t="s">
         <v>1586</v>
@@ -56825,6 +56825,822 @@
         <v>1</v>
       </c>
       <c r="AM670" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="34">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="34">
+        <v>1</v>
+      </c>
+      <c r="G671" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I671" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J671" s="34" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L671" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="33">
+        <v>0</v>
+      </c>
+      <c r="N671" s="33">
+        <v>0</v>
+      </c>
+      <c r="O671" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P671" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R671" s="35" t="s">
+        <v>1619</v>
+      </c>
+      <c r="W671" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X671" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z671" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA671" s="34">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="34">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="34">
+        <v>1</v>
+      </c>
+      <c r="G672" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I672" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J672" s="34" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L672" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="33">
+        <v>0</v>
+      </c>
+      <c r="N672" s="33">
+        <v>0</v>
+      </c>
+      <c r="O672" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P672" s="34">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R672" s="35" t="s">
+        <v>1621</v>
+      </c>
+      <c r="W672" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X672" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z672" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA672" s="34">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="34">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="34">
+        <v>1</v>
+      </c>
+      <c r="G673" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I673" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J673" s="34" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L673" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="33">
+        <v>0</v>
+      </c>
+      <c r="N673" s="33">
+        <v>0</v>
+      </c>
+      <c r="O673" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P673" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R673" s="35" t="s">
+        <v>1623</v>
+      </c>
+      <c r="W673" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X673" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z673" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA673" s="34">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="34">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="34">
+        <v>1</v>
+      </c>
+      <c r="G674" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I674" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J674" s="34" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L674" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="33">
+        <v>0</v>
+      </c>
+      <c r="N674" s="33">
+        <v>0</v>
+      </c>
+      <c r="O674" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P674" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R674" s="35" t="s">
+        <v>1625</v>
+      </c>
+      <c r="W674" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X674" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z674" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA674" s="34">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="34">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="34">
+        <v>1</v>
+      </c>
+      <c r="G675" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I675" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J675" s="34" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L675" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="33">
+        <v>0</v>
+      </c>
+      <c r="N675" s="33">
+        <v>0</v>
+      </c>
+      <c r="O675" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P675" s="34">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R675" s="35" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W675" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X675" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z675" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA675" s="34">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="34">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="34">
+        <v>1</v>
+      </c>
+      <c r="G676" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I676" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J676" s="34" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L676" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="33">
+        <v>0</v>
+      </c>
+      <c r="N676" s="33">
+        <v>0</v>
+      </c>
+      <c r="O676" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P676" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R676" s="35" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W676" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X676" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z676" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA676" s="34">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="34">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="34">
+        <v>1</v>
+      </c>
+      <c r="G677" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I677" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J677" s="34" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L677" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="33">
+        <v>0</v>
+      </c>
+      <c r="N677" s="33">
+        <v>0</v>
+      </c>
+      <c r="O677" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P677" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R677" s="35" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W677" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X677" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z677" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA677" s="34">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="34">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="34">
+        <v>1</v>
+      </c>
+      <c r="G678" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I678" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J678" s="34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L678" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="33">
+        <v>0</v>
+      </c>
+      <c r="N678" s="33">
+        <v>0</v>
+      </c>
+      <c r="O678" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P678" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R678" s="35" t="s">
+        <v>1631</v>
+      </c>
+      <c r="W678" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X678" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z678" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA678" s="34">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="34">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="34">
+        <v>1</v>
+      </c>
+      <c r="G679" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I679" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J679" s="34" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L679" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="33">
+        <v>0</v>
+      </c>
+      <c r="N679" s="33">
+        <v>0</v>
+      </c>
+      <c r="O679" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P679" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R679" s="35" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W679" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X679" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z679" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA679" s="34">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="34">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="34">
+        <v>1</v>
+      </c>
+      <c r="G680" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I680" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J680" s="34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L680" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="33">
+        <v>0</v>
+      </c>
+      <c r="N680" s="33">
+        <v>0</v>
+      </c>
+      <c r="O680" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P680" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R680" s="35" t="s">
+        <v>1631</v>
+      </c>
+      <c r="W680" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X680" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z680" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA680" s="34">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="34">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="34">
+        <v>1</v>
+      </c>
+      <c r="G681" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I681" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J681" s="34" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L681" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="33">
+        <v>0</v>
+      </c>
+      <c r="N681" s="33">
+        <v>0</v>
+      </c>
+      <c r="O681" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P681" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R681" s="35" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W681" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X681" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z681" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA681" s="34">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="34">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="34">
+        <v>1</v>
+      </c>
+      <c r="G682" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I682" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J682" s="34" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L682" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="33">
+        <v>0</v>
+      </c>
+      <c r="N682" s="33">
+        <v>0</v>
+      </c>
+      <c r="O682" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P682" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R682" s="35" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W682" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X682" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="34">
+        <v>1624320000</v>
+      </c>
+      <c r="Z682" s="34">
+        <v>1624895999</v>
+      </c>
+      <c r="AA682" s="34">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="34">
         <v>1</v>
       </c>
     </row>

--- a/config_6.22/shoping_config.xlsx
+++ b/config_6.22/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5371" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6730,10 +6730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6773,9 +6773,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6788,16 +6809,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6810,10 +6824,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6825,11 +6840,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6845,14 +6867,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6872,14 +6886,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6895,13 +6901,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -6910,8 +6909,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,19 +7027,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7051,25 +7087,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7081,67 +7111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7159,13 +7141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7177,7 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7217,13 +7217,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7239,6 +7243,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7270,30 +7283,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -7314,6 +7303,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7322,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN682"/>
+  <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H659" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H626" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
+      <selection pane="bottomRight" activeCell="H644" sqref="H644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54478,7 +54478,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635" s="34" t="s">
         <v>1616</v>
@@ -54546,7 +54546,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="34" t="s">
         <v>1616</v>
@@ -54614,7 +54614,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="34" t="s">
         <v>1616</v>
@@ -54682,7 +54682,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="34" t="s">
         <v>1616</v>
@@ -54750,7 +54750,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" s="34" t="s">
         <v>1616</v>
@@ -54818,7 +54818,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" s="34" t="s">
         <v>1616</v>
@@ -54886,7 +54886,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" s="34" t="s">
         <v>1616</v>
@@ -54954,7 +54954,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" s="34" t="s">
         <v>1616</v>
@@ -55022,7 +55022,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643" s="34" t="s">
         <v>1616</v>
@@ -55090,7 +55090,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="34" t="s">
         <v>1616</v>
@@ -55158,7 +55158,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="34" t="s">
         <v>1616</v>
@@ -55226,7 +55226,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G646" s="34" t="s">
         <v>1616</v>
@@ -56825,822 +56825,6 @@
         <v>1</v>
       </c>
       <c r="AM670" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="671" spans="1:39">
-      <c r="A671" s="21">
-        <v>670</v>
-      </c>
-      <c r="B671" s="34">
-        <v>10587</v>
-      </c>
-      <c r="F671" s="34">
-        <v>1</v>
-      </c>
-      <c r="G671" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I671" s="33" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J671" s="34" t="s">
-        <v>1617</v>
-      </c>
-      <c r="L671" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M671" s="33">
-        <v>0</v>
-      </c>
-      <c r="N671" s="33">
-        <v>0</v>
-      </c>
-      <c r="O671" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P671" s="34">
-        <v>600</v>
-      </c>
-      <c r="Q671" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R671" s="35" t="s">
-        <v>1619</v>
-      </c>
-      <c r="W671" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X671" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y671" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z671" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA671" s="34">
-        <v>80</v>
-      </c>
-      <c r="AH671" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI671" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL671" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM671" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:39">
-      <c r="A672" s="21">
-        <v>671</v>
-      </c>
-      <c r="B672" s="34">
-        <v>10588</v>
-      </c>
-      <c r="F672" s="34">
-        <v>1</v>
-      </c>
-      <c r="G672" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I672" s="33" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J672" s="34" t="s">
-        <v>1620</v>
-      </c>
-      <c r="L672" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M672" s="33">
-        <v>0</v>
-      </c>
-      <c r="N672" s="33">
-        <v>0</v>
-      </c>
-      <c r="O672" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P672" s="34">
-        <v>1000</v>
-      </c>
-      <c r="Q672" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R672" s="35" t="s">
-        <v>1621</v>
-      </c>
-      <c r="W672" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X672" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y672" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z672" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA672" s="34">
-        <v>80</v>
-      </c>
-      <c r="AH672" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI672" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL672" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM672" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:39">
-      <c r="A673" s="21">
-        <v>672</v>
-      </c>
-      <c r="B673" s="34">
-        <v>10589</v>
-      </c>
-      <c r="F673" s="34">
-        <v>1</v>
-      </c>
-      <c r="G673" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I673" s="33" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J673" s="34" t="s">
-        <v>1622</v>
-      </c>
-      <c r="L673" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M673" s="33">
-        <v>0</v>
-      </c>
-      <c r="N673" s="33">
-        <v>0</v>
-      </c>
-      <c r="O673" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P673" s="34">
-        <v>1800</v>
-      </c>
-      <c r="Q673" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R673" s="35" t="s">
-        <v>1623</v>
-      </c>
-      <c r="W673" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X673" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y673" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z673" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA673" s="34">
-        <v>80</v>
-      </c>
-      <c r="AH673" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI673" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL673" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM673" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:39">
-      <c r="A674" s="21">
-        <v>673</v>
-      </c>
-      <c r="B674" s="34">
-        <v>10590</v>
-      </c>
-      <c r="F674" s="34">
-        <v>1</v>
-      </c>
-      <c r="G674" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I674" s="33" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J674" s="34" t="s">
-        <v>1624</v>
-      </c>
-      <c r="L674" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M674" s="33">
-        <v>0</v>
-      </c>
-      <c r="N674" s="33">
-        <v>0</v>
-      </c>
-      <c r="O674" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P674" s="34">
-        <v>1800</v>
-      </c>
-      <c r="Q674" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R674" s="35" t="s">
-        <v>1625</v>
-      </c>
-      <c r="W674" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X674" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y674" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z674" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA674" s="34">
-        <v>81</v>
-      </c>
-      <c r="AH674" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI674" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL674" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM674" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:39">
-      <c r="A675" s="21">
-        <v>674</v>
-      </c>
-      <c r="B675" s="34">
-        <v>10591</v>
-      </c>
-      <c r="F675" s="34">
-        <v>1</v>
-      </c>
-      <c r="G675" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I675" s="33" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J675" s="34" t="s">
-        <v>1626</v>
-      </c>
-      <c r="L675" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M675" s="33">
-        <v>0</v>
-      </c>
-      <c r="N675" s="33">
-        <v>0</v>
-      </c>
-      <c r="O675" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P675" s="34">
-        <v>3000</v>
-      </c>
-      <c r="Q675" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R675" s="35" t="s">
-        <v>1627</v>
-      </c>
-      <c r="W675" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X675" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y675" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z675" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA675" s="34">
-        <v>81</v>
-      </c>
-      <c r="AH675" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI675" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL675" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM675" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:39">
-      <c r="A676" s="21">
-        <v>675</v>
-      </c>
-      <c r="B676" s="34">
-        <v>10592</v>
-      </c>
-      <c r="F676" s="34">
-        <v>1</v>
-      </c>
-      <c r="G676" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I676" s="33" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J676" s="34" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L676" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M676" s="33">
-        <v>0</v>
-      </c>
-      <c r="N676" s="33">
-        <v>0</v>
-      </c>
-      <c r="O676" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P676" s="34">
-        <v>4800</v>
-      </c>
-      <c r="Q676" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R676" s="35" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W676" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X676" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y676" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z676" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA676" s="34">
-        <v>81</v>
-      </c>
-      <c r="AH676" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI676" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL676" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM676" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:39">
-      <c r="A677" s="21">
-        <v>676</v>
-      </c>
-      <c r="B677" s="34">
-        <v>10593</v>
-      </c>
-      <c r="F677" s="34">
-        <v>1</v>
-      </c>
-      <c r="G677" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I677" s="33" t="s">
-        <v>1552</v>
-      </c>
-      <c r="J677" s="34" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L677" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M677" s="33">
-        <v>0</v>
-      </c>
-      <c r="N677" s="33">
-        <v>0</v>
-      </c>
-      <c r="O677" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P677" s="34">
-        <v>4800</v>
-      </c>
-      <c r="Q677" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R677" s="35" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W677" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X677" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y677" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z677" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA677" s="34">
-        <v>82</v>
-      </c>
-      <c r="AH677" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI677" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL677" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM677" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:39">
-      <c r="A678" s="21">
-        <v>677</v>
-      </c>
-      <c r="B678" s="34">
-        <v>10594</v>
-      </c>
-      <c r="F678" s="34">
-        <v>1</v>
-      </c>
-      <c r="G678" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I678" s="33" t="s">
-        <v>1552</v>
-      </c>
-      <c r="J678" s="34" t="s">
-        <v>1630</v>
-      </c>
-      <c r="L678" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M678" s="33">
-        <v>0</v>
-      </c>
-      <c r="N678" s="33">
-        <v>0</v>
-      </c>
-      <c r="O678" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P678" s="34">
-        <v>9800</v>
-      </c>
-      <c r="Q678" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R678" s="35" t="s">
-        <v>1631</v>
-      </c>
-      <c r="W678" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X678" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y678" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z678" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA678" s="34">
-        <v>82</v>
-      </c>
-      <c r="AH678" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI678" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL678" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM678" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:39">
-      <c r="A679" s="21">
-        <v>678</v>
-      </c>
-      <c r="B679" s="34">
-        <v>10595</v>
-      </c>
-      <c r="F679" s="34">
-        <v>1</v>
-      </c>
-      <c r="G679" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I679" s="33" t="s">
-        <v>1552</v>
-      </c>
-      <c r="J679" s="34" t="s">
-        <v>1632</v>
-      </c>
-      <c r="L679" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M679" s="33">
-        <v>0</v>
-      </c>
-      <c r="N679" s="33">
-        <v>0</v>
-      </c>
-      <c r="O679" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P679" s="34">
-        <v>19800</v>
-      </c>
-      <c r="Q679" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R679" s="35" t="s">
-        <v>1633</v>
-      </c>
-      <c r="W679" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X679" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y679" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z679" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA679" s="34">
-        <v>82</v>
-      </c>
-      <c r="AH679" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI679" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL679" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM679" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:39">
-      <c r="A680" s="21">
-        <v>679</v>
-      </c>
-      <c r="B680" s="34">
-        <v>10596</v>
-      </c>
-      <c r="F680" s="34">
-        <v>1</v>
-      </c>
-      <c r="G680" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I680" s="33" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J680" s="34" t="s">
-        <v>1630</v>
-      </c>
-      <c r="L680" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M680" s="33">
-        <v>0</v>
-      </c>
-      <c r="N680" s="33">
-        <v>0</v>
-      </c>
-      <c r="O680" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P680" s="34">
-        <v>9800</v>
-      </c>
-      <c r="Q680" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R680" s="35" t="s">
-        <v>1631</v>
-      </c>
-      <c r="W680" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X680" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y680" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z680" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA680" s="34">
-        <v>83</v>
-      </c>
-      <c r="AH680" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI680" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL680" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM680" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:39">
-      <c r="A681" s="21">
-        <v>680</v>
-      </c>
-      <c r="B681" s="34">
-        <v>10597</v>
-      </c>
-      <c r="F681" s="34">
-        <v>1</v>
-      </c>
-      <c r="G681" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I681" s="33" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J681" s="34" t="s">
-        <v>1632</v>
-      </c>
-      <c r="L681" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M681" s="33">
-        <v>0</v>
-      </c>
-      <c r="N681" s="33">
-        <v>0</v>
-      </c>
-      <c r="O681" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P681" s="34">
-        <v>19800</v>
-      </c>
-      <c r="Q681" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R681" s="35" t="s">
-        <v>1633</v>
-      </c>
-      <c r="W681" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X681" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y681" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z681" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA681" s="34">
-        <v>83</v>
-      </c>
-      <c r="AH681" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI681" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL681" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM681" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:39">
-      <c r="A682" s="21">
-        <v>681</v>
-      </c>
-      <c r="B682" s="34">
-        <v>10598</v>
-      </c>
-      <c r="F682" s="34">
-        <v>1</v>
-      </c>
-      <c r="G682" s="34" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I682" s="33" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J682" s="34" t="s">
-        <v>1634</v>
-      </c>
-      <c r="L682" s="33">
-        <v>-31</v>
-      </c>
-      <c r="M682" s="33">
-        <v>0</v>
-      </c>
-      <c r="N682" s="33">
-        <v>0</v>
-      </c>
-      <c r="O682" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="P682" s="34">
-        <v>49800</v>
-      </c>
-      <c r="Q682" s="34" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R682" s="35" t="s">
-        <v>1635</v>
-      </c>
-      <c r="W682" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="X682" s="33">
-        <v>99999999</v>
-      </c>
-      <c r="Y682" s="34">
-        <v>1624320000</v>
-      </c>
-      <c r="Z682" s="34">
-        <v>1624895999</v>
-      </c>
-      <c r="AA682" s="34">
-        <v>83</v>
-      </c>
-      <c r="AH682" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI682" s="34">
-        <v>1</v>
-      </c>
-      <c r="AL682" s="34">
-        <v>1</v>
-      </c>
-      <c r="AM682" s="34">
         <v>1</v>
       </c>
     </row>

--- a/config_6.22/shoping_config.xlsx
+++ b/config_6.22/shoping_config.xlsx
@@ -6730,10 +6730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6773,16 +6773,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6795,46 +6787,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6849,32 +6804,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6886,16 +6847,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6910,8 +6871,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,7 +7027,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7039,13 +7069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7057,7 +7087,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,7 +7123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7081,13 +7135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7099,7 +7153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7111,73 +7165,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7217,17 +7217,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7250,23 +7261,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7276,15 +7272,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7306,11 +7293,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7322,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13654,11 +13654,11 @@
   <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H626" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X626" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H644" sqref="H644"/>
+      <selection pane="bottomRight" activeCell="Y635" sqref="Y635:Z646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54517,10 +54517,10 @@
         <v>99999999</v>
       </c>
       <c r="Y635" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z635" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA635" s="34">
         <v>80</v>
@@ -54585,10 +54585,10 @@
         <v>99999999</v>
       </c>
       <c r="Y636" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z636" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA636" s="34">
         <v>80</v>
@@ -54653,10 +54653,10 @@
         <v>99999999</v>
       </c>
       <c r="Y637" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z637" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA637" s="34">
         <v>80</v>
@@ -54721,10 +54721,10 @@
         <v>99999999</v>
       </c>
       <c r="Y638" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z638" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA638" s="34">
         <v>81</v>
@@ -54789,10 +54789,10 @@
         <v>99999999</v>
       </c>
       <c r="Y639" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z639" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA639" s="34">
         <v>81</v>
@@ -54857,10 +54857,10 @@
         <v>99999999</v>
       </c>
       <c r="Y640" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z640" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA640" s="34">
         <v>81</v>
@@ -54925,10 +54925,10 @@
         <v>99999999</v>
       </c>
       <c r="Y641" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z641" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA641" s="34">
         <v>82</v>
@@ -54993,10 +54993,10 @@
         <v>99999999</v>
       </c>
       <c r="Y642" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z642" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA642" s="34">
         <v>82</v>
@@ -55061,10 +55061,10 @@
         <v>99999999</v>
       </c>
       <c r="Y643" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z643" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA643" s="34">
         <v>82</v>
@@ -55129,10 +55129,10 @@
         <v>99999999</v>
       </c>
       <c r="Y644" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z644" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA644" s="34">
         <v>83</v>
@@ -55197,10 +55197,10 @@
         <v>99999999</v>
       </c>
       <c r="Y645" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z645" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA645" s="34">
         <v>83</v>
@@ -55265,10 +55265,10 @@
         <v>99999999</v>
       </c>
       <c r="Y646" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z646" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA646" s="34">
         <v>83</v>
